--- a/data/infrastructure/infrastructure_uuid.xlsx
+++ b/data/infrastructure/infrastructure_uuid.xlsx
@@ -35,6 +35,105 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -44,6 +143,28 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
@@ -51,129 +172,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -190,187 +190,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,30 +381,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,7 +403,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,16 +447,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -470,17 +481,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,10 +489,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -501,133 +501,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1083,77 +1083,77 @@
     <row r="2" ht="14.25" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>['f633b7dce002461e832928dd4401e977']</t>
+          <t>['a5dbfb33c75d45308cc7459b205e98c7']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>['779a6c09da234a5fb0eece69924541b0']</t>
+          <t>['cac8a346ad98463a85f12152fc1c5e3e']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>['5a95ff5b137743529b7907297abb8d83']</t>
+          <t>['24dd896dadaf4782ad95893570af0679']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>['d4a488b338b847abb8d5c482aa5f113c']</t>
+          <t>['d01f587e59c74b9ab211698664032e0b']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>['efaa42a981644733a97f06110741ff65']</t>
+          <t>['27831301495a404cada6ca2d246e3d0c']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>['14675fa9d7c44f3bbd6223edcbf65a6b']</t>
+          <t>['fb5747be5c34407d9d660152c31050bb']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>['ec518bf355d341ea9c64d3e146a9cd64']</t>
+          <t>['4438d7b5e26047bf84f8bc631b8a96bb']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>['d46922cb0e744b73a8798cd732a70cd0']</t>
+          <t>['7f6f0b4ea5944d3c92eb5f1e723badb0']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>['ad1083acf3154c5f81757d039f2c7b6e']</t>
+          <t>['90f92526cb55415e8d1d4a59d88638e6']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>['31be35e228da4fa0863e04e6a732515a']</t>
+          <t>['d439cf126fe04162aa48046cad07b853']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>['ca610eefff4f41fdb2bf5db6fa0594a9']</t>
+          <t>['691d345c413a41b7bd487fd50c255312']</t>
         </is>
       </c>
     </row>

--- a/data/infrastructure/infrastructure_uuid.xlsx
+++ b/data/infrastructure/infrastructure_uuid.xlsx
@@ -1083,77 +1083,77 @@
     <row r="2" ht="14.25" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>['a5dbfb33c75d45308cc7459b205e98c7']</t>
+          <t>['8edaf7b1ee2345d0be5b4f228047f973']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>['cac8a346ad98463a85f12152fc1c5e3e']</t>
+          <t>['81005fad74ae4d2eaeff6907c28c297a']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>['24dd896dadaf4782ad95893570af0679']</t>
+          <t>['2761beaaf9c443db95c4e2e246700cff']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>['d01f587e59c74b9ab211698664032e0b']</t>
+          <t>['ac4fd4be6c7945f28ebfeeace6f7a95e']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>['27831301495a404cada6ca2d246e3d0c']</t>
+          <t>['b08a9507413741a39a3216e3fb1d80cc']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>['fb5747be5c34407d9d660152c31050bb']</t>
+          <t>['eea242da193b4e58b00ce10b7536d98a']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>['4438d7b5e26047bf84f8bc631b8a96bb']</t>
+          <t>['5d28767e408a42568a7a3cc9465aa31a']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>['7f6f0b4ea5944d3c92eb5f1e723badb0']</t>
+          <t>['ac2298c699784ca0888eab47e3317416']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>['90f92526cb55415e8d1d4a59d88638e6']</t>
+          <t>['af3ba062ba14468fb685860fe51f3320']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>['d439cf126fe04162aa48046cad07b853']</t>
+          <t>['b5721c0ed842493592c45923294cb373']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>['691d345c413a41b7bd487fd50c255312']</t>
+          <t>['724d26595c9f464ba9a503953537d714']</t>
         </is>
       </c>
     </row>

--- a/data/infrastructure/infrastructure_uuid.xlsx
+++ b/data/infrastructure/infrastructure_uuid.xlsx
@@ -1083,77 +1083,77 @@
     <row r="2" ht="14.25" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>['8edaf7b1ee2345d0be5b4f228047f973']</t>
+          <t>['152f063a8f0a41d6b87cd7203ccbf7a6']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>['81005fad74ae4d2eaeff6907c28c297a']</t>
+          <t>['30354b5529ed432b931f64ace2accb1e']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>['2761beaaf9c443db95c4e2e246700cff']</t>
+          <t>['bf65b001798043aeaa95d8d49ab3b0e4']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>['ac4fd4be6c7945f28ebfeeace6f7a95e']</t>
+          <t>['68fc34c56e694282b4db08a316c3adad']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>['b08a9507413741a39a3216e3fb1d80cc']</t>
+          <t>['13a0b3fcc56644529ee2bc747b9f6777']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>['eea242da193b4e58b00ce10b7536d98a']</t>
+          <t>['45036dfda02047428db59b6e7c9910b6']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>['5d28767e408a42568a7a3cc9465aa31a']</t>
+          <t>['246b4fc4bba64065907d3b5cea5c8f88']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>['ac2298c699784ca0888eab47e3317416']</t>
+          <t>['7470f5d84ee141beb477d8784c33346d']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>['af3ba062ba14468fb685860fe51f3320']</t>
+          <t>['40bd82a5ba6a4cf4a8b0fd0b5206d2cb']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>['b5721c0ed842493592c45923294cb373']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>['724d26595c9f464ba9a503953537d714']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>

--- a/data/infrastructure/infrastructure_uuid.xlsx
+++ b/data/infrastructure/infrastructure_uuid.xlsx
@@ -1083,63 +1083,63 @@
     <row r="2" ht="14.25" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>['152f063a8f0a41d6b87cd7203ccbf7a6']</t>
+          <t>['244a47e6867b4aeea9c361bab66f334e']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>['30354b5529ed432b931f64ace2accb1e']</t>
+          <t>['11801bc3963349f9a2b418213505fefa']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>['bf65b001798043aeaa95d8d49ab3b0e4']</t>
+          <t>['ca8564a758dc4b7aa3cc07f26d77e879']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>['68fc34c56e694282b4db08a316c3adad']</t>
+          <t>['37f2cf263c57429f8861ccb8f587d6ae']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>['13a0b3fcc56644529ee2bc747b9f6777']</t>
+          <t>['823c756674dd4779831e4df8103f45d3']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>['45036dfda02047428db59b6e7c9910b6']</t>
+          <t>['f57a282170794727ab63e8cdd0864c6f']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>['246b4fc4bba64065907d3b5cea5c8f88']</t>
+          <t>['799e5302c1a3486a9ddde1b2fa783859']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>['7470f5d84ee141beb477d8784c33346d']</t>
+          <t>['bcbd0ee241ca4628ac87812e8ab224b2']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>['40bd82a5ba6a4cf4a8b0fd0b5206d2cb']</t>
+          <t>['7c340fce74d44dfd9400a110b3a44835']</t>
         </is>
       </c>
     </row>

--- a/data/infrastructure/infrastructure_uuid.xlsx
+++ b/data/infrastructure/infrastructure_uuid.xlsx
@@ -1083,77 +1083,77 @@
     <row r="2" ht="14.25" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>['244a47e6867b4aeea9c361bab66f334e']</t>
+          <t>['ca18cef438c54e039e784708286fa2cd']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>['11801bc3963349f9a2b418213505fefa']</t>
+          <t>['26858caa7a4a4fba98b984d96135b18c']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>['ca8564a758dc4b7aa3cc07f26d77e879']</t>
+          <t>['1f0db20b290c4c07b1911448eb249513']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>['37f2cf263c57429f8861ccb8f587d6ae']</t>
+          <t>['e78e7152cc5b43c789d2bf8e491f236c']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>['823c756674dd4779831e4df8103f45d3']</t>
+          <t>['37274291aac24bc8bc287574cc526c2e']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>['f57a282170794727ab63e8cdd0864c6f']</t>
+          <t>['484d0b8352c1423787eff0107377e40f']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>['799e5302c1a3486a9ddde1b2fa783859']</t>
+          <t>['7691c9a6866848d58b50b5d769611448']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>['bcbd0ee241ca4628ac87812e8ab224b2']</t>
+          <t>['584c5a3dbf794188b220dbdeb55fa704']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>['7c340fce74d44dfd9400a110b3a44835']</t>
+          <t>['83fac5258ded4f19aedc770ee8b9a3d6']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['fe6fdf7ad79143939e77ca85cd44b9ba']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['db0e7d19e01c4f79a56a39adfe50233f']</t>
         </is>
       </c>
     </row>

--- a/data/infrastructure/infrastructure_uuid.xlsx
+++ b/data/infrastructure/infrastructure_uuid.xlsx
@@ -36,6 +36,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -43,7 +50,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -59,14 +72,45 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -75,6 +119,53 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,97 +178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color rgb="00000000"/>
     </font>
   </fonts>
@@ -190,187 +190,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,6 +381,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -399,20 +417,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,26 +473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,10 +489,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -501,40 +501,40 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
@@ -543,91 +543,91 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1083,77 +1083,77 @@
     <row r="2" ht="14.25" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>['ca18cef438c54e039e784708286fa2cd']</t>
+          <t>['92366e427d464de29a74a9c8aa08c4ce']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>['26858caa7a4a4fba98b984d96135b18c']</t>
+          <t>['3027a3f45b7e4d2b951f2a5fa9048226']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>['1f0db20b290c4c07b1911448eb249513']</t>
+          <t>['51ad87ce78e7400e9a9e3a042f42599f']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>['e78e7152cc5b43c789d2bf8e491f236c']</t>
+          <t>['1181c7196fcb4c55bf274d1a7ed5b7ff']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>['37274291aac24bc8bc287574cc526c2e']</t>
+          <t>['2747c45ab9804803b05aa9908ea67e87']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>['484d0b8352c1423787eff0107377e40f']</t>
+          <t>['55b0788c8c944ce7a420fc59a8a70ebc']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>['7691c9a6866848d58b50b5d769611448']</t>
+          <t>['c1f33ce72e8b40dea9a111ec55658b18']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>['584c5a3dbf794188b220dbdeb55fa704']</t>
+          <t>['ec6e39cfb83c4e26bd4653efac519030']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>['83fac5258ded4f19aedc770ee8b9a3d6']</t>
+          <t>['bad30d2ff5654abcb15ff12ed9cc957a']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>['fe6fdf7ad79143939e77ca85cd44b9ba']</t>
+          <t>['1dcdf3bab0364035b89a6887220a7d09']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>['db0e7d19e01c4f79a56a39adfe50233f']</t>
+          <t>['92458ae2a16449cfbc55ae43b8c08876']</t>
         </is>
       </c>
     </row>

--- a/data/infrastructure/infrastructure_uuid.xlsx
+++ b/data/infrastructure/infrastructure_uuid.xlsx
@@ -1083,77 +1083,77 @@
     <row r="2" ht="14.25" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>['2304aa6daca247659984dc2ab2d9f1e6']</t>
+          <t>['6726c4a78b1f483595154b7df0337ba6']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>['fce807a8de96407aaaad2dea82016188']</t>
+          <t>['271a3f145e3e49c5ad88635072a2854d']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>['bb86a51b16fd44039861b3b2fa56cbc3']</t>
+          <t>['7695a3aa5ab6420c8684c229eae57dbe']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>['be754de2e3a54a7db4eecfaaefe5b839']</t>
+          <t>['d098ebd6b57b4b78a8f008081bf05a42']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>['93aeced03a254697a6f46706c6e201d6']</t>
+          <t>['1958d980c3f543dd86275c6a65ee11fc']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>['89c590693b3841019af8935a3451b966']</t>
+          <t>['59a153e393884a1b81d3dcca6ff6b9d9']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>['776df7f7191e41159ed5522ce3a106c1']</t>
+          <t>['0dc35fea982c4b9fbbc7a75d1d46a106']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>['09f533513e474f019e93c82565866882']</t>
+          <t>['d238cf0eeceb44948cc2c83d461fdaaa']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>['1ffbaff264424e569f6db75400bff79d']</t>
+          <t>['e943dd00b08c47b399c4c2ee2e0f29c0']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>['7c6884a8fdbe45a9ad8044ec67cb3e0d']</t>
+          <t>['87f171705d544facaa65f994a12af0b3']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>['e9d1883f2178421994b189c2d216917d']</t>
+          <t>['9615c81fa67a441e8a6a5ab0ad518157']</t>
         </is>
       </c>
     </row>
